--- a/Code/Results/Cases/Case_4_147/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_147/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.53409342963469</v>
+        <v>20.00768154687529</v>
       </c>
       <c r="C2">
-        <v>17.84102081362829</v>
+        <v>12.58822934047073</v>
       </c>
       <c r="D2">
-        <v>12.20379942651812</v>
+        <v>15.11417044970839</v>
       </c>
       <c r="E2">
-        <v>13.20083393839456</v>
+        <v>16.54545837451031</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.70899865496632</v>
+        <v>58.99718260621379</v>
       </c>
       <c r="H2">
-        <v>17.45800609868006</v>
+        <v>21.1626555222491</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.863496635754526</v>
+        <v>9.459625741028404</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.7594202819663</v>
+        <v>19.58021695603266</v>
       </c>
       <c r="C3">
-        <v>16.54602304046596</v>
+        <v>12.19389734686851</v>
       </c>
       <c r="D3">
-        <v>11.67045791914195</v>
+        <v>15.06430076538702</v>
       </c>
       <c r="E3">
-        <v>12.63466428409907</v>
+        <v>16.49689304671548</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>60.39592960400184</v>
+        <v>58.31384738202864</v>
       </c>
       <c r="H3">
-        <v>16.89106981109074</v>
+        <v>21.11384465096936</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.778630705127688</v>
+        <v>9.473865552789846</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.61873449524323</v>
+        <v>19.31975601849749</v>
       </c>
       <c r="C4">
-        <v>15.7130695904288</v>
+        <v>11.94966845093827</v>
       </c>
       <c r="D4">
-        <v>11.34439787302147</v>
+        <v>15.0374347015375</v>
       </c>
       <c r="E4">
-        <v>12.2893481513254</v>
+        <v>16.47120512415311</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>58.36171550750203</v>
+        <v>57.90922598828651</v>
       </c>
       <c r="H4">
-        <v>16.55464373649663</v>
+        <v>21.08887383393095</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.730703231030093</v>
+        <v>9.484223070089648</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.14081622123641</v>
+        <v>19.21428940576688</v>
       </c>
       <c r="C5">
-        <v>15.36389804337729</v>
+        <v>11.84979418922796</v>
       </c>
       <c r="D5">
-        <v>11.21196219284302</v>
+        <v>15.02743548200475</v>
       </c>
       <c r="E5">
-        <v>12.14928967658898</v>
+        <v>16.46178006826518</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>57.53313068492238</v>
+        <v>57.74825038128382</v>
       </c>
       <c r="H5">
-        <v>16.42043167344139</v>
+        <v>21.07995436010414</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.712182802813065</v>
+        <v>9.488849062884592</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.06066178371288</v>
+        <v>19.19682241499803</v>
       </c>
       <c r="C6">
-        <v>15.30532414039657</v>
+        <v>11.8331945695995</v>
       </c>
       <c r="D6">
-        <v>11.19000061289561</v>
+        <v>15.02583255326654</v>
       </c>
       <c r="E6">
-        <v>12.12607582935432</v>
+        <v>16.46027813577395</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>57.39558218038026</v>
+        <v>57.72176094460323</v>
       </c>
       <c r="H6">
-        <v>16.39831881328805</v>
+        <v>21.07854912061721</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.709167372537777</v>
+        <v>9.489641658573525</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61234238062828</v>
+        <v>19.31833070707778</v>
       </c>
       <c r="C7">
-        <v>15.70840024559784</v>
+        <v>11.94832267752639</v>
       </c>
       <c r="D7">
-        <v>11.34260990444722</v>
+        <v>15.03729600073778</v>
       </c>
       <c r="E7">
-        <v>12.28745647356402</v>
+        <v>16.47107378696281</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>58.35053876881857</v>
+        <v>57.90703898688466</v>
       </c>
       <c r="H7">
-        <v>16.55282208531741</v>
+        <v>21.08874845783949</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.730449419309807</v>
+        <v>9.48428381806086</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.93261565854075</v>
+        <v>19.85997663872913</v>
       </c>
       <c r="C8">
-        <v>17.40221146540538</v>
+        <v>12.45280608937197</v>
       </c>
       <c r="D8">
-        <v>12.01964900424151</v>
+        <v>15.09619949322178</v>
       </c>
       <c r="E8">
-        <v>13.00517577557795</v>
+        <v>16.52785838832906</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.56679945815468</v>
+        <v>58.75856004702167</v>
       </c>
       <c r="H8">
-        <v>17.26006702189567</v>
+        <v>21.14478784381458</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.833341806951823</v>
+        <v>9.464200199401429</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.09115448489968</v>
+        <v>20.9307648531812</v>
       </c>
       <c r="C9">
-        <v>20.43525365064277</v>
+        <v>13.41802590897267</v>
       </c>
       <c r="D9">
-        <v>13.35676241005451</v>
+        <v>15.24123172417699</v>
       </c>
       <c r="E9">
-        <v>14.42939578548029</v>
+        <v>16.67176290064277</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>70.83164236703708</v>
+        <v>60.53987609377348</v>
       </c>
       <c r="H9">
-        <v>18.74314515576384</v>
+        <v>21.29432979461035</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.070301419102531</v>
+        <v>9.437653823622117</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.93003212246302</v>
+        <v>21.71333330338366</v>
       </c>
       <c r="C10">
-        <v>22.50632730063499</v>
+        <v>14.10355742886801</v>
       </c>
       <c r="D10">
-        <v>14.34562654802825</v>
+        <v>15.36536168320852</v>
       </c>
       <c r="E10">
-        <v>15.48719815855553</v>
+        <v>16.79695320806165</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>76.91862888330074</v>
+        <v>61.90649848972031</v>
       </c>
       <c r="H10">
-        <v>19.89902437453902</v>
+        <v>21.4282708774779</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.269065111582389</v>
+        <v>9.426014748029729</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.18066727740995</v>
+        <v>22.06658891080751</v>
       </c>
       <c r="C11">
-        <v>23.41935766687026</v>
+        <v>14.40866894868194</v>
       </c>
       <c r="D11">
-        <v>14.79807670709551</v>
+        <v>15.42553593177851</v>
       </c>
       <c r="E11">
-        <v>15.97226876943986</v>
+        <v>16.85802802746422</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>79.70138707862516</v>
+        <v>62.53852720154283</v>
       </c>
       <c r="H11">
-        <v>20.44197065235091</v>
+        <v>21.49438414607384</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.365724177218094</v>
+        <v>9.422434599479889</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.64900859355224</v>
+        <v>22.19982017554962</v>
       </c>
       <c r="C12">
-        <v>23.7614153736631</v>
+        <v>14.52311969279547</v>
       </c>
       <c r="D12">
-        <v>14.96996112099866</v>
+        <v>15.44884434555595</v>
       </c>
       <c r="E12">
-        <v>16.15671005183436</v>
+        <v>16.88173815097268</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>80.75851031204897</v>
+        <v>62.77915446448527</v>
       </c>
       <c r="H12">
-        <v>20.65035674883097</v>
+        <v>21.52015862718561</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.403314889860516</v>
+        <v>9.421325877020418</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.54836522965214</v>
+        <v>22.17115262437832</v>
       </c>
       <c r="C13">
-        <v>23.68790220291325</v>
+        <v>14.49852084611271</v>
       </c>
       <c r="D13">
-        <v>14.93291463105402</v>
+        <v>15.443801447386</v>
       </c>
       <c r="E13">
-        <v>16.11694968451652</v>
+        <v>16.8766060306503</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>80.53066378793451</v>
+        <v>62.72727675418056</v>
       </c>
       <c r="H13">
-        <v>20.60534709569433</v>
+        <v>21.5145748880008</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.395173464869002</v>
+        <v>9.421553668252274</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.21929922039264</v>
+        <v>22.0775615281028</v>
       </c>
       <c r="C14">
-        <v>23.44756967913351</v>
+        <v>14.41810733045351</v>
       </c>
       <c r="D14">
-        <v>14.81220542426563</v>
+        <v>15.42744314080653</v>
       </c>
       <c r="E14">
-        <v>15.98742629604422</v>
+        <v>16.8599670663578</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>79.78828047816464</v>
+        <v>62.55829898786027</v>
       </c>
       <c r="H14">
-        <v>20.4590567209042</v>
+        <v>21.49648986242155</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.368796399028358</v>
+        <v>9.422338431568477</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.01707369566866</v>
+        <v>22.02015993603804</v>
       </c>
       <c r="C15">
-        <v>23.29989521845079</v>
+        <v>14.36870667206183</v>
       </c>
       <c r="D15">
-        <v>14.73834580799886</v>
+        <v>15.41749079899456</v>
       </c>
       <c r="E15">
-        <v>15.90819514532206</v>
+        <v>16.84985073122454</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>79.33403477970704</v>
+        <v>62.45495761930009</v>
       </c>
       <c r="H15">
-        <v>20.36982337808898</v>
+        <v>21.48550826577697</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.352771367047315</v>
+        <v>9.422851301036207</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.84752983021871</v>
+        <v>21.69017949706965</v>
       </c>
       <c r="C16">
-        <v>22.44611354785174</v>
+        <v>14.083471570304</v>
       </c>
       <c r="D16">
-        <v>14.3161238330663</v>
+        <v>15.36150280083351</v>
       </c>
       <c r="E16">
-        <v>15.45559077699405</v>
+        <v>16.79304393500976</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>76.73715296657049</v>
+        <v>61.86538537138514</v>
       </c>
       <c r="H16">
-        <v>19.86391157070869</v>
+        <v>21.42405398697107</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.262881123431528</v>
+        <v>9.426283260327754</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.12001294620418</v>
+        <v>21.48693964210493</v>
       </c>
       <c r="C17">
-        <v>21.91521895907522</v>
+        <v>13.90667394357934</v>
       </c>
       <c r="D17">
-        <v>14.05787632253215</v>
+        <v>15.32809765096748</v>
       </c>
       <c r="E17">
-        <v>15.17904151384306</v>
+        <v>16.75924400407575</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>75.14840927424284</v>
+        <v>61.50621249752577</v>
       </c>
       <c r="H17">
-        <v>19.55813826146801</v>
+        <v>21.38767701247813</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.209393640076413</v>
+        <v>9.428828133557261</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.69768286697057</v>
+        <v>21.36979180344068</v>
       </c>
       <c r="C18">
-        <v>21.60708791963068</v>
+        <v>13.80435650377699</v>
       </c>
       <c r="D18">
-        <v>13.90957044213426</v>
+        <v>15.30923354262927</v>
       </c>
       <c r="E18">
-        <v>15.02032578609559</v>
+        <v>16.74019216423924</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>74.23579269930464</v>
+        <v>61.30061134808093</v>
       </c>
       <c r="H18">
-        <v>19.38385380948128</v>
+        <v>21.36724223467791</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.179210068311533</v>
+        <v>9.430453233806277</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.55400539571088</v>
+        <v>21.33008924935979</v>
       </c>
       <c r="C19">
-        <v>21.50226967416152</v>
+        <v>13.76960953433759</v>
       </c>
       <c r="D19">
-        <v>13.85939211442186</v>
+        <v>15.30290686195852</v>
       </c>
       <c r="E19">
-        <v>14.96664234597386</v>
+        <v>16.73380865913581</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>73.92696575298193</v>
+        <v>61.23117356183446</v>
       </c>
       <c r="H19">
-        <v>19.32510859586835</v>
+        <v>21.36040741180098</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.16908774722758</v>
+        <v>9.431031162912811</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.19785596159193</v>
+        <v>21.50860178934475</v>
       </c>
       <c r="C20">
-        <v>21.97201740210929</v>
+        <v>13.92556026403072</v>
       </c>
       <c r="D20">
-        <v>14.08534222718404</v>
+        <v>15.3316175777552</v>
       </c>
       <c r="E20">
-        <v>15.20844343584173</v>
+        <v>16.76280188066388</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>75.31740243132117</v>
+        <v>61.54434647542265</v>
       </c>
       <c r="H20">
-        <v>19.59052194673776</v>
+        <v>21.39149890965883</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.21502674265952</v>
+        <v>9.428540524157016</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.31609080741121</v>
+        <v>22.10506724109756</v>
       </c>
       <c r="C21">
-        <v>23.5182568138391</v>
+        <v>14.44175715431238</v>
       </c>
       <c r="D21">
-        <v>14.84764391701294</v>
+        <v>15.43223390706966</v>
       </c>
       <c r="E21">
-        <v>16.02544796407307</v>
+        <v>16.8648386177011</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>80.00623213748774</v>
+        <v>62.6078983616537</v>
       </c>
       <c r="H21">
-        <v>20.50194715133149</v>
+        <v>21.50178187894392</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.376516350659635</v>
+        <v>9.422101220713088</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.6702684600478</v>
+        <v>22.49168951042718</v>
       </c>
       <c r="C22">
-        <v>24.50762259105549</v>
+        <v>14.77273131417206</v>
       </c>
       <c r="D22">
-        <v>15.34920235629069</v>
+        <v>15.50102766424759</v>
       </c>
       <c r="E22">
-        <v>16.56396470269454</v>
+        <v>16.93491460038646</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>83.09119298039542</v>
+        <v>63.31042910498945</v>
       </c>
       <c r="H22">
-        <v>21.1140675686197</v>
+        <v>21.57816074098246</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.48787501473633</v>
+        <v>9.419332642199665</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.95004799867581</v>
+        <v>22.28568054661751</v>
       </c>
       <c r="C23">
-        <v>23.98132922894128</v>
+        <v>14.59670503022621</v>
       </c>
       <c r="D23">
-        <v>15.0811268847169</v>
+        <v>15.46403739564346</v>
       </c>
       <c r="E23">
-        <v>16.27604378229402</v>
+        <v>16.89720744083482</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>81.44222988424504</v>
+        <v>62.93485944103413</v>
       </c>
       <c r="H23">
-        <v>20.7857296316048</v>
+        <v>21.5370046667881</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.42787344081462</v>
+        <v>9.420678403450342</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.16267585935345</v>
+        <v>21.49880926380713</v>
       </c>
       <c r="C24">
-        <v>21.94634793459861</v>
+        <v>13.91702384914149</v>
       </c>
       <c r="D24">
-        <v>14.0729243928743</v>
+        <v>15.33002515600178</v>
       </c>
       <c r="E24">
-        <v>15.19514998060809</v>
+        <v>16.76119217964427</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>75.24099831337936</v>
+        <v>61.52710331040736</v>
       </c>
       <c r="H24">
-        <v>19.5758766063109</v>
+        <v>21.38976953802194</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.21247825716541</v>
+        <v>9.428670047749819</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.00598943601409</v>
+        <v>20.64115946994467</v>
       </c>
       <c r="C25">
-        <v>19.64385993753441</v>
+        <v>13.16045945411401</v>
       </c>
       <c r="D25">
-        <v>12.99411729249701</v>
+        <v>15.19887547553332</v>
       </c>
       <c r="E25">
-        <v>14.0423647795835</v>
+        <v>16.62938293244216</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>68.59551532789949</v>
+        <v>60.04706351692766</v>
       </c>
       <c r="H25">
-        <v>18.33100798376901</v>
+        <v>21.24963511271217</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.002125012211934</v>
+        <v>9.443456752685787</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_147/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_147/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.00768154687529</v>
+        <v>24.53409342963479</v>
       </c>
       <c r="C2">
-        <v>12.58822934047073</v>
+        <v>17.84102081362834</v>
       </c>
       <c r="D2">
-        <v>15.11417044970839</v>
+        <v>12.20379942651818</v>
       </c>
       <c r="E2">
-        <v>16.54545837451031</v>
+        <v>13.20083393839458</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>58.99718260621379</v>
+        <v>63.70899865496609</v>
       </c>
       <c r="H2">
-        <v>21.1626555222491</v>
+        <v>17.45800609868001</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.459625741028404</v>
+        <v>5.863496635754487</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.58021695603266</v>
+        <v>22.7594202819663</v>
       </c>
       <c r="C3">
-        <v>12.19389734686851</v>
+        <v>16.54602304046591</v>
       </c>
       <c r="D3">
-        <v>15.06430076538702</v>
+        <v>11.67045791914198</v>
       </c>
       <c r="E3">
-        <v>16.49689304671548</v>
+        <v>12.63466428409914</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>58.31384738202864</v>
+        <v>60.39592960400186</v>
       </c>
       <c r="H3">
-        <v>21.11384465096936</v>
+        <v>16.89106981109077</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.473865552789846</v>
+        <v>5.77863070512767</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.31975601849749</v>
+        <v>21.61873449524324</v>
       </c>
       <c r="C4">
-        <v>11.94966845093827</v>
+        <v>15.71306959042891</v>
       </c>
       <c r="D4">
-        <v>15.0374347015375</v>
+        <v>11.3443978730215</v>
       </c>
       <c r="E4">
-        <v>16.47120512415311</v>
+        <v>12.28934815132535</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.90922598828651</v>
+        <v>58.36171550750194</v>
       </c>
       <c r="H4">
-        <v>21.08887383393095</v>
+        <v>16.5546437364965</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.484223070089648</v>
+        <v>5.730703231030041</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.21428940576688</v>
+        <v>21.14081622123633</v>
       </c>
       <c r="C5">
-        <v>11.84979418922796</v>
+        <v>15.36389804337741</v>
       </c>
       <c r="D5">
-        <v>15.02743548200475</v>
+        <v>11.21196219284306</v>
       </c>
       <c r="E5">
-        <v>16.46178006826518</v>
+        <v>12.149289676589</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>57.74825038128382</v>
+        <v>57.5331306849224</v>
       </c>
       <c r="H5">
-        <v>21.07995436010414</v>
+        <v>16.42043167344142</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.488849062884592</v>
+        <v>5.712182802813091</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.19682241499803</v>
+        <v>21.0606617837128</v>
       </c>
       <c r="C6">
-        <v>11.8331945695995</v>
+        <v>15.30532414039653</v>
       </c>
       <c r="D6">
-        <v>15.02583255326654</v>
+        <v>11.19000061289571</v>
       </c>
       <c r="E6">
-        <v>16.46027813577395</v>
+        <v>12.12607582935439</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>57.72176094460323</v>
+        <v>57.39558218038031</v>
       </c>
       <c r="H6">
-        <v>21.07854912061721</v>
+        <v>16.39831881328813</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.489641658573525</v>
+        <v>5.709167372537732</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.31833070707778</v>
+        <v>21.61234238062828</v>
       </c>
       <c r="C7">
-        <v>11.94832267752639</v>
+        <v>15.7084002455977</v>
       </c>
       <c r="D7">
-        <v>15.03729600073778</v>
+        <v>11.34260990444726</v>
       </c>
       <c r="E7">
-        <v>16.47107378696281</v>
+        <v>12.28745647356407</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.90703898688466</v>
+        <v>58.3505387688185</v>
       </c>
       <c r="H7">
-        <v>21.08874845783949</v>
+        <v>16.5528220853175</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.48428381806086</v>
+        <v>5.730449419309842</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.85997663872913</v>
+        <v>23.93261565854075</v>
       </c>
       <c r="C8">
-        <v>12.45280608937197</v>
+        <v>17.4022114654053</v>
       </c>
       <c r="D8">
-        <v>15.09619949322178</v>
+        <v>12.01964900424151</v>
       </c>
       <c r="E8">
-        <v>16.52785838832906</v>
+        <v>13.00517577557797</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>58.75856004702167</v>
+        <v>62.56679945815468</v>
       </c>
       <c r="H8">
-        <v>21.14478784381458</v>
+        <v>17.26006702189567</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.464200199401429</v>
+        <v>5.833341806951866</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.9307648531812</v>
+        <v>28.09115448489971</v>
       </c>
       <c r="C9">
-        <v>13.41802590897267</v>
+        <v>20.4352536506427</v>
       </c>
       <c r="D9">
-        <v>15.24123172417699</v>
+        <v>13.35676241005453</v>
       </c>
       <c r="E9">
-        <v>16.67176290064277</v>
+        <v>14.4293957854803</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>60.53987609377348</v>
+        <v>70.83164236703709</v>
       </c>
       <c r="H9">
-        <v>21.29432979461035</v>
+        <v>18.74314515576389</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.437653823622117</v>
+        <v>6.070301419102559</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.71333330338366</v>
+        <v>30.93003212246292</v>
       </c>
       <c r="C10">
-        <v>14.10355742886801</v>
+        <v>22.50632730063488</v>
       </c>
       <c r="D10">
-        <v>15.36536168320852</v>
+        <v>14.3456265480283</v>
       </c>
       <c r="E10">
-        <v>16.79695320806165</v>
+        <v>15.48719815855554</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>61.90649848972031</v>
+        <v>76.91862888330037</v>
       </c>
       <c r="H10">
-        <v>21.4282708774779</v>
+        <v>19.899024374539</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.426014748029729</v>
+        <v>6.269065111582391</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.06658891080751</v>
+        <v>32.1806672774099</v>
       </c>
       <c r="C11">
-        <v>14.40866894868194</v>
+        <v>23.41935766687027</v>
       </c>
       <c r="D11">
-        <v>15.42553593177851</v>
+        <v>14.79807670709548</v>
       </c>
       <c r="E11">
-        <v>16.85802802746422</v>
+        <v>15.97226876943983</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>62.53852720154283</v>
+        <v>79.70138707862505</v>
       </c>
       <c r="H11">
-        <v>21.49438414607384</v>
+        <v>20.44197065235088</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.422434599479889</v>
+        <v>6.365724177218128</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.19982017554962</v>
+        <v>32.6490085935524</v>
       </c>
       <c r="C12">
-        <v>14.52311969279547</v>
+        <v>23.76141537366304</v>
       </c>
       <c r="D12">
-        <v>15.44884434555595</v>
+        <v>14.96996112099867</v>
       </c>
       <c r="E12">
-        <v>16.88173815097268</v>
+        <v>16.15671005183437</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>62.77915446448527</v>
+        <v>80.75851031204932</v>
       </c>
       <c r="H12">
-        <v>21.52015862718561</v>
+        <v>20.650356748831</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.421325877020418</v>
+        <v>6.403314889860521</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.17115262437832</v>
+        <v>32.54836522965211</v>
       </c>
       <c r="C13">
-        <v>14.49852084611271</v>
+        <v>23.68790220291334</v>
       </c>
       <c r="D13">
-        <v>15.443801447386</v>
+        <v>14.93291463105399</v>
       </c>
       <c r="E13">
-        <v>16.8766060306503</v>
+        <v>16.11694968451651</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>62.72727675418056</v>
+        <v>80.53066378793449</v>
       </c>
       <c r="H13">
-        <v>21.5145748880008</v>
+        <v>20.60534709569431</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.421553668252274</v>
+        <v>6.395173464869018</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.0775615281028</v>
+        <v>32.21929922039263</v>
       </c>
       <c r="C14">
-        <v>14.41810733045351</v>
+        <v>23.44756967913347</v>
       </c>
       <c r="D14">
-        <v>15.42744314080653</v>
+        <v>14.81220542426562</v>
       </c>
       <c r="E14">
-        <v>16.8599670663578</v>
+        <v>15.98742629604425</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>62.55829898786027</v>
+        <v>79.78828047816471</v>
       </c>
       <c r="H14">
-        <v>21.49648986242155</v>
+        <v>20.45905672090418</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.422338431568477</v>
+        <v>6.368796399028373</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.02015993603804</v>
+        <v>32.01707369566863</v>
       </c>
       <c r="C15">
-        <v>14.36870667206183</v>
+        <v>23.2998952184508</v>
       </c>
       <c r="D15">
-        <v>15.41749079899456</v>
+        <v>14.73834580799884</v>
       </c>
       <c r="E15">
-        <v>16.84985073122454</v>
+        <v>15.90819514532206</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>62.45495761930009</v>
+        <v>79.33403477970727</v>
       </c>
       <c r="H15">
-        <v>21.48550826577697</v>
+        <v>20.36982337808904</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.422851301036207</v>
+        <v>6.35277136704731</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.69017949706965</v>
+        <v>30.84752983021867</v>
       </c>
       <c r="C16">
-        <v>14.083471570304</v>
+        <v>22.44611354785168</v>
       </c>
       <c r="D16">
-        <v>15.36150280083351</v>
+        <v>14.31612383306632</v>
       </c>
       <c r="E16">
-        <v>16.79304393500976</v>
+        <v>15.45559077699404</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>61.86538537138514</v>
+        <v>76.73715296657029</v>
       </c>
       <c r="H16">
-        <v>21.42405398697107</v>
+        <v>19.86391157070865</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.426283260327754</v>
+        <v>6.262881123431513</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.48693964210493</v>
+        <v>30.12001294620417</v>
       </c>
       <c r="C17">
-        <v>13.90667394357934</v>
+        <v>21.91521895907527</v>
       </c>
       <c r="D17">
-        <v>15.32809765096748</v>
+        <v>14.05787632253217</v>
       </c>
       <c r="E17">
-        <v>16.75924400407575</v>
+        <v>15.1790415138431</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>61.50621249752577</v>
+        <v>75.14840927424274</v>
       </c>
       <c r="H17">
-        <v>21.38767701247813</v>
+        <v>19.55813826146792</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.428828133557261</v>
+        <v>6.209393640076458</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.36979180344068</v>
+        <v>29.69768286697064</v>
       </c>
       <c r="C18">
-        <v>13.80435650377699</v>
+        <v>21.60708791963047</v>
       </c>
       <c r="D18">
-        <v>15.30923354262927</v>
+        <v>13.90957044213424</v>
       </c>
       <c r="E18">
-        <v>16.74019216423924</v>
+        <v>15.02032578609554</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>61.30061134808093</v>
+        <v>74.23579269930487</v>
       </c>
       <c r="H18">
-        <v>21.36724223467791</v>
+        <v>19.38385380948134</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.430453233806277</v>
+        <v>6.179210068311487</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.33008924935979</v>
+        <v>29.55400539571096</v>
       </c>
       <c r="C19">
-        <v>13.76960953433759</v>
+        <v>21.50226967416146</v>
       </c>
       <c r="D19">
-        <v>15.30290686195852</v>
+        <v>13.85939211442187</v>
       </c>
       <c r="E19">
-        <v>16.73380865913581</v>
+        <v>14.96664234597383</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>61.23117356183446</v>
+        <v>73.92696575298207</v>
       </c>
       <c r="H19">
-        <v>21.36040741180098</v>
+        <v>19.32510859586835</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.431031162912811</v>
+        <v>6.169087747227523</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.50860178934475</v>
+        <v>30.19785596159189</v>
       </c>
       <c r="C20">
-        <v>13.92556026403072</v>
+        <v>21.97201740210923</v>
       </c>
       <c r="D20">
-        <v>15.3316175777552</v>
+        <v>14.08534222718402</v>
       </c>
       <c r="E20">
-        <v>16.76280188066388</v>
+        <v>15.20844343584169</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>61.54434647542265</v>
+        <v>75.31740243132143</v>
       </c>
       <c r="H20">
-        <v>21.39149890965883</v>
+        <v>19.59052194673783</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.428540524157016</v>
+        <v>6.215026742659491</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.10506724109756</v>
+        <v>32.31609080741114</v>
       </c>
       <c r="C21">
-        <v>14.44175715431238</v>
+        <v>23.51825681383915</v>
       </c>
       <c r="D21">
-        <v>15.43223390706966</v>
+        <v>14.84764391701294</v>
       </c>
       <c r="E21">
-        <v>16.8648386177011</v>
+        <v>16.02544796407307</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>62.6078983616537</v>
+        <v>80.00623213748761</v>
       </c>
       <c r="H21">
-        <v>21.50178187894392</v>
+        <v>20.50194715133147</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.422101220713088</v>
+        <v>6.376516350659661</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.49168951042718</v>
+        <v>33.67026846004779</v>
       </c>
       <c r="C22">
-        <v>14.77273131417206</v>
+        <v>24.50762259105558</v>
       </c>
       <c r="D22">
-        <v>15.50102766424759</v>
+        <v>15.34920235629064</v>
       </c>
       <c r="E22">
-        <v>16.93491460038646</v>
+        <v>16.5639647026945</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>63.31042910498945</v>
+        <v>83.09119298039516</v>
       </c>
       <c r="H22">
-        <v>21.57816074098246</v>
+        <v>21.11406756861964</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.419332642199665</v>
+        <v>6.487875014736284</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.28568054661751</v>
+        <v>32.95004799867593</v>
       </c>
       <c r="C23">
-        <v>14.59670503022621</v>
+        <v>23.9813292289415</v>
       </c>
       <c r="D23">
-        <v>15.46403739564346</v>
+        <v>15.08112688471691</v>
       </c>
       <c r="E23">
-        <v>16.89720744083482</v>
+        <v>16.27604378229405</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>62.93485944103413</v>
+        <v>81.44222988424524</v>
       </c>
       <c r="H23">
-        <v>21.5370046667881</v>
+        <v>20.78572963160481</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.420678403450342</v>
+        <v>6.427873440814598</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.49880926380713</v>
+        <v>30.16267585935333</v>
       </c>
       <c r="C24">
-        <v>13.91702384914149</v>
+        <v>21.94634793459873</v>
       </c>
       <c r="D24">
-        <v>15.33002515600178</v>
+        <v>14.07292439287435</v>
       </c>
       <c r="E24">
-        <v>16.76119217964427</v>
+        <v>15.19514998060807</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>61.52710331040736</v>
+        <v>75.24099831337917</v>
       </c>
       <c r="H24">
-        <v>21.38976953802194</v>
+        <v>19.57587660631087</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.428670047749819</v>
+        <v>6.212478257165395</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.64115946994467</v>
+        <v>27.00598943601408</v>
       </c>
       <c r="C25">
-        <v>13.16045945411401</v>
+        <v>19.64385993753435</v>
       </c>
       <c r="D25">
-        <v>15.19887547553332</v>
+        <v>12.99411729249701</v>
       </c>
       <c r="E25">
-        <v>16.62938293244216</v>
+        <v>14.04236477958352</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>60.04706351692766</v>
+        <v>68.59551532789929</v>
       </c>
       <c r="H25">
-        <v>21.24963511271217</v>
+        <v>18.331007983769</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.443456752685787</v>
+        <v>6.002125012211955</v>
       </c>
       <c r="K25">
         <v>0</v>
